--- a/src/Rest_API/Registros_Perdidos.xlsx
+++ b/src/Rest_API/Registros_Perdidos.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Share\AcessCRTL_EDT\Code\GitHub\API-Bioacceso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Share\AcessCRTL_EDT\SaveLogs\APIs\BIOACCESO-API\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="5730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>device</t>
   </si>
@@ -54,10 +54,31 @@
     <t>user_id</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2022-07-12 00:13:02.49</t>
-  </si>
-  <si>
     <t>187.210.6.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2025-01-26 08:55:07.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2025-01-26 18:55:17.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2025-01-27 08:55:07.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2025-01-27 18:55:17.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2025-01-28 08:55:07.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2025-01-28 18:55:17.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2025-01-29 08:55:07.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2025-01-29 18:55:17.22</t>
   </si>
 </sst>
 </file>
@@ -420,25 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -478,44 +490,309 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="E2">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="F2">
+        <v>31.2580997499043</v>
+      </c>
+      <c r="G2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H2">
+        <v>23.21</v>
+      </c>
+      <c r="I2">
+        <v>32.603031158447273</v>
+      </c>
+      <c r="J2">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="K2">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="L2">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>33.441254000000001</v>
-      </c>
-      <c r="E2">
-        <v>33.441254000000001</v>
-      </c>
-      <c r="F2">
-        <v>33.927253662109372</v>
-      </c>
-      <c r="G2">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="H2">
-        <v>28.5</v>
-      </c>
-      <c r="I2">
-        <v>30.289848327636719</v>
-      </c>
-      <c r="J2">
-        <v>23.374693000000001</v>
-      </c>
-      <c r="K2">
-        <v>23.374693000000001</v>
-      </c>
-      <c r="L2">
-        <v>2160000</v>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="E3">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="F3">
+        <v>31.2580997499043</v>
+      </c>
+      <c r="G3">
+        <v>36.4</v>
+      </c>
+      <c r="H3">
+        <v>23.21</v>
+      </c>
+      <c r="I3">
+        <v>32.603031158447273</v>
+      </c>
+      <c r="J3">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="K3">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="L3">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="E4">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="F4">
+        <v>31.2580997499043</v>
+      </c>
+      <c r="G4">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H4">
+        <v>23.21</v>
+      </c>
+      <c r="I4">
+        <v>32.603031158447273</v>
+      </c>
+      <c r="J4">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="K4">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="L4">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="E5">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="F5">
+        <v>31.2580997499043</v>
+      </c>
+      <c r="G5">
+        <v>36.4</v>
+      </c>
+      <c r="H5">
+        <v>23.21</v>
+      </c>
+      <c r="I5">
+        <v>32.603031158447273</v>
+      </c>
+      <c r="J5">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="K5">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="L5">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="E6">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="F6">
+        <v>31.2580997499043</v>
+      </c>
+      <c r="G6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H6">
+        <v>23.21</v>
+      </c>
+      <c r="I6">
+        <v>32.603031158447273</v>
+      </c>
+      <c r="J6">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="K6">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="L6">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="E7">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="F7">
+        <v>31.2580997499043</v>
+      </c>
+      <c r="G7">
+        <v>36.4</v>
+      </c>
+      <c r="H7">
+        <v>23.21</v>
+      </c>
+      <c r="I7">
+        <v>32.603031158447273</v>
+      </c>
+      <c r="J7">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="K7">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="L7">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="E8">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="F8">
+        <v>31.2580997499043</v>
+      </c>
+      <c r="G8">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H8">
+        <v>23.21</v>
+      </c>
+      <c r="I8">
+        <v>32.603031158447273</v>
+      </c>
+      <c r="J8">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="K8">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="L8">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="E9">
+        <v>29.944469999999999</v>
+      </c>
+      <c r="F9">
+        <v>31.2580997499043</v>
+      </c>
+      <c r="G9">
+        <v>36.4</v>
+      </c>
+      <c r="H9">
+        <v>23.21</v>
+      </c>
+      <c r="I9">
+        <v>32.603031158447273</v>
+      </c>
+      <c r="J9">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="K9">
+        <v>22.101175000000001</v>
+      </c>
+      <c r="L9">
+        <v>2161</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>